--- a/tests/testdata/testdata.xlsx
+++ b/tests/testdata/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\dev\github.com\zztkm\xlsz\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\dev\github.com\zztkm\xlsz\tests\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A7B150-8EF1-4DD8-B828-1793B53FC198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8A4F9-4A99-4D30-B7B8-81DB230EB12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{15359F08-E6A9-46C7-9FE8-86AE7AE51BAB}"/>
+    <workbookView xWindow="32790" yWindow="2955" windowWidth="14625" windowHeight="15345" xr2:uid="{15359F08-E6A9-46C7-9FE8-86AE7AE51BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="test_standard" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,23 +104,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -141,9 +138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D028DFC7-14E5-4AC2-9240-0CD71614E214}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,9 +484,6 @@
       <c r="A9">
         <v>123.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -501,7 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A9A181-B227-494B-9C57-1EDD1EF12EDE}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -511,77 +507,77 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>0.19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>0.19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>1.19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1.19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>1.19</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>1.19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
